--- a/sentence_level/data/earthquake/sentences/nepal_earthquake.xlsx
+++ b/sentence_level/data/earthquake/sentences/nepal_earthquake.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="268" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="102" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -2264,7 +2264,7 @@
     <t>The city of Kathmandu was encircled in clouds of dust, with injured people sitting bandaged in the street and many being stretchered out of buildings by neighbours or dragged from under the rubble of collapsed homes and businesses.</t>
   </si>
   <si>
-    <t> A powerful aftershock shook Nepal on Sunday, making buildings sway and sending panicked Kathmandu residents running into the streets a day after a massive earthquake left more than 2,200 people dead.</t>
+    <t>A powerful aftershock shook Nepal on Sunday, making buildings sway and sending panicked Kathmandu residents running into the streets a day after a massive earthquake left more than 2,200 people dead.</t>
   </si>
   <si>
     <t>A DFID-chartered flight was due to leave London for Kathmandu on Sunday evening, carrying seven UK International Search and Rescue crews, four search and rescue dogs, a medical support team and a hazardous materials specialist.</t>
@@ -2925,8 +2925,8 @@
   </sheetPr>
   <dimension ref="A1:D1290"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A844" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C854" activeCellId="0" sqref="C854"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A843" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C859" activeCellId="0" sqref="C859"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -14889,6 +14889,9 @@
       <c r="C854" s="0" t="s">
         <v>725</v>
       </c>
+      <c r="D854" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="855" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A855" s="0" t="s">
@@ -14928,6 +14931,9 @@
       <c r="C857" s="0" t="s">
         <v>726</v>
       </c>
+      <c r="D857" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="858" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A858" s="0" t="s">
@@ -14939,6 +14945,9 @@
       <c r="C858" s="0" t="s">
         <v>727</v>
       </c>
+      <c r="D858" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="859" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A859" s="0" t="s">
@@ -16771,6 +16780,9 @@
       </c>
       <c r="C1002" s="0" t="s">
         <v>726</v>
+      </c>
+      <c r="D1002" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1003" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/sentence_level/data/earthquake/sentences/nepal_earthquake.xlsx
+++ b/sentence_level/data/earthquake/sentences/nepal_earthquake.xlsx
@@ -2925,8 +2925,8 @@
   </sheetPr>
   <dimension ref="A1:D1290"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A843" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C859" activeCellId="0" sqref="C859"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1290" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1263" activeCellId="0" sqref="C1263"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -14008,7 +14008,7 @@
         <v>680</v>
       </c>
       <c r="D791" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="792" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14442,7 +14442,7 @@
         <v>705</v>
       </c>
       <c r="D822" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="823" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14596,7 +14596,7 @@
         <v>26</v>
       </c>
       <c r="D833" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="834" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14959,6 +14959,9 @@
       <c r="C859" s="0" t="s">
         <v>728</v>
       </c>
+      <c r="D859" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="860" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A860" s="0" t="s">
@@ -14998,6 +15001,9 @@
       <c r="C862" s="0" t="s">
         <v>729</v>
       </c>
+      <c r="D862" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="863" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A863" s="0" t="s">
@@ -15065,6 +15071,9 @@
       <c r="C867" s="0" t="s">
         <v>730</v>
       </c>
+      <c r="D867" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="868" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A868" s="0" t="s">
@@ -15090,6 +15099,9 @@
       <c r="C869" s="0" t="s">
         <v>731</v>
       </c>
+      <c r="D869" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="870" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A870" s="0" t="s">
@@ -15101,6 +15113,9 @@
       <c r="C870" s="0" t="s">
         <v>732</v>
       </c>
+      <c r="D870" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="871" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A871" s="0" t="s">
@@ -15126,6 +15141,9 @@
       <c r="C872" s="0" t="s">
         <v>733</v>
       </c>
+      <c r="D872" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="873" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A873" s="0" t="s">
@@ -15165,6 +15183,9 @@
       <c r="C875" s="0" t="s">
         <v>734</v>
       </c>
+      <c r="D875" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="876" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A876" s="0" t="s">
@@ -15176,6 +15197,9 @@
       <c r="C876" s="0" t="s">
         <v>735</v>
       </c>
+      <c r="D876" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="877" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A877" s="0" t="s">
@@ -15187,6 +15211,9 @@
       <c r="C877" s="0" t="s">
         <v>736</v>
       </c>
+      <c r="D877" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="878" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A878" s="0" t="s">
@@ -15226,6 +15253,9 @@
       <c r="C880" s="0" t="s">
         <v>737</v>
       </c>
+      <c r="D880" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="881" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A881" s="0" t="s">
@@ -15237,6 +15267,9 @@
       <c r="C881" s="0" t="s">
         <v>738</v>
       </c>
+      <c r="D881" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="882" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A882" s="0" t="s">
@@ -15248,6 +15281,9 @@
       <c r="C882" s="0" t="s">
         <v>739</v>
       </c>
+      <c r="D882" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="883" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A883" s="0" t="s">
@@ -15273,6 +15309,9 @@
       <c r="C884" s="0" t="s">
         <v>740</v>
       </c>
+      <c r="D884" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="885" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A885" s="0" t="s">
@@ -15284,6 +15323,9 @@
       <c r="C885" s="0" t="s">
         <v>741</v>
       </c>
+      <c r="D885" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="886" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A886" s="0" t="s">
@@ -15295,6 +15337,9 @@
       <c r="C886" s="0" t="s">
         <v>742</v>
       </c>
+      <c r="D886" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="887" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A887" s="0" t="s">
@@ -15306,6 +15351,9 @@
       <c r="C887" s="0" t="s">
         <v>743</v>
       </c>
+      <c r="D887" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="888" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A888" s="0" t="s">
@@ -15317,6 +15365,9 @@
       <c r="C888" s="0" t="s">
         <v>744</v>
       </c>
+      <c r="D888" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="889" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A889" s="0" t="s">
@@ -15342,6 +15393,9 @@
       <c r="C890" s="0" t="s">
         <v>745</v>
       </c>
+      <c r="D890" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="891" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A891" s="0" t="s">
@@ -15353,6 +15407,9 @@
       <c r="C891" s="0" t="s">
         <v>746</v>
       </c>
+      <c r="D891" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="892" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A892" s="0" t="s">
@@ -15364,6 +15421,9 @@
       <c r="C892" s="0" t="s">
         <v>747</v>
       </c>
+      <c r="D892" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="893" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A893" s="0" t="s">
@@ -15375,6 +15435,9 @@
       <c r="C893" s="0" t="s">
         <v>748</v>
       </c>
+      <c r="D893" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="894" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A894" s="0" t="s">
@@ -15414,6 +15477,9 @@
       <c r="C896" s="0" t="s">
         <v>750</v>
       </c>
+      <c r="D896" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="897" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A897" s="0" t="s">
@@ -15439,6 +15505,9 @@
       <c r="C898" s="0" t="s">
         <v>751</v>
       </c>
+      <c r="D898" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="899" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A899" s="0" t="s">
@@ -15478,6 +15547,9 @@
       <c r="C901" s="0" t="s">
         <v>28</v>
       </c>
+      <c r="D901" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="902" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A902" s="0" t="s">
@@ -15489,6 +15561,9 @@
       <c r="C902" s="0" t="s">
         <v>752</v>
       </c>
+      <c r="D902" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="903" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A903" s="0" t="s">
@@ -15567,6 +15642,9 @@
       <c r="C908" s="0" t="s">
         <v>754</v>
       </c>
+      <c r="D908" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="909" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A909" s="0" t="s">
@@ -15578,6 +15656,9 @@
       <c r="C909" s="0" t="s">
         <v>643</v>
       </c>
+      <c r="D909" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="910" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A910" s="0" t="s">
@@ -15673,6 +15754,9 @@
       <c r="C916" s="0" t="s">
         <v>757</v>
       </c>
+      <c r="D916" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="917" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A917" s="0" t="s">
@@ -15684,6 +15768,9 @@
       <c r="C917" s="0" t="s">
         <v>758</v>
       </c>
+      <c r="D917" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="918" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A918" s="0" t="s">
@@ -15695,6 +15782,9 @@
       <c r="C918" s="0" t="s">
         <v>759</v>
       </c>
+      <c r="D918" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="919" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A919" s="0" t="s">
@@ -15706,6 +15796,9 @@
       <c r="C919" s="0" t="s">
         <v>760</v>
       </c>
+      <c r="D919" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="920" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A920" s="0" t="s">
@@ -15717,6 +15810,9 @@
       <c r="C920" s="0" t="s">
         <v>761</v>
       </c>
+      <c r="D920" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="921" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A921" s="0" t="s">
@@ -15756,6 +15852,9 @@
       <c r="C923" s="0" t="s">
         <v>762</v>
       </c>
+      <c r="D923" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="924" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A924" s="0" t="s">
@@ -15767,6 +15866,9 @@
       <c r="C924" s="0" t="s">
         <v>763</v>
       </c>
+      <c r="D924" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="925" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A925" s="0" t="s">
@@ -15778,6 +15880,9 @@
       <c r="C925" s="0" t="s">
         <v>194</v>
       </c>
+      <c r="D925" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="926" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A926" s="0" t="s">
@@ -16055,6 +16160,9 @@
       <c r="C945" s="0" t="s">
         <v>776</v>
       </c>
+      <c r="D945" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="946" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A946" s="0" t="s">
@@ -16066,6 +16174,9 @@
       <c r="C946" s="0" t="s">
         <v>777</v>
       </c>
+      <c r="D946" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="947" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A947" s="0" t="s">
@@ -16147,6 +16258,9 @@
       <c r="C952" s="0" t="s">
         <v>733</v>
       </c>
+      <c r="D952" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="953" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A953" s="0" t="s">
@@ -16354,6 +16468,9 @@
       <c r="C967" s="0" t="s">
         <v>788</v>
       </c>
+      <c r="D967" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="968" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A968" s="0" t="s">
@@ -16379,6 +16496,9 @@
       <c r="C969" s="0" t="s">
         <v>776</v>
       </c>
+      <c r="D969" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="970" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A970" s="0" t="s">
@@ -16390,6 +16510,9 @@
       <c r="C970" s="0" t="s">
         <v>777</v>
       </c>
+      <c r="D970" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="971" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A971" s="0" t="s">
@@ -16401,6 +16524,9 @@
       <c r="C971" s="0" t="s">
         <v>729</v>
       </c>
+      <c r="D971" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="972" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A972" s="0" t="s">
@@ -16440,6 +16566,9 @@
       <c r="C974" s="0" t="s">
         <v>741</v>
       </c>
+      <c r="D974" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="975" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A975" s="0" t="s">
@@ -16451,6 +16580,9 @@
       <c r="C975" s="0" t="s">
         <v>168</v>
       </c>
+      <c r="D975" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="976" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A976" s="0" t="s">
@@ -16476,6 +16608,9 @@
       <c r="C977" s="0" t="s">
         <v>18</v>
       </c>
+      <c r="D977" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="978" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A978" s="0" t="s">
@@ -16487,6 +16622,9 @@
       <c r="C978" s="0" t="s">
         <v>792</v>
       </c>
+      <c r="D978" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="979" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A979" s="0" t="s">
@@ -16540,6 +16678,9 @@
       <c r="C982" s="0" t="s">
         <v>796</v>
       </c>
+      <c r="D982" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="983" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A983" s="0" t="s">
@@ -16551,6 +16692,9 @@
       <c r="C983" s="0" t="s">
         <v>55</v>
       </c>
+      <c r="D983" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="984" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A984" s="0" t="s">
@@ -16562,6 +16706,9 @@
       <c r="C984" s="0" t="s">
         <v>797</v>
       </c>
+      <c r="D984" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="985" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A985" s="0" t="s">
@@ -16657,6 +16804,9 @@
       <c r="C991" s="0" t="s">
         <v>62</v>
       </c>
+      <c r="D991" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="992" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A992" s="0" t="s">
@@ -16668,6 +16818,9 @@
       <c r="C992" s="0" t="s">
         <v>800</v>
       </c>
+      <c r="D992" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="993" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A993" s="0" t="s">
@@ -16679,6 +16832,9 @@
       <c r="C993" s="0" t="s">
         <v>151</v>
       </c>
+      <c r="D993" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="994" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A994" s="0" t="s">
@@ -16690,6 +16846,9 @@
       <c r="C994" s="0" t="s">
         <v>802</v>
       </c>
+      <c r="D994" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="995" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A995" s="0" t="s">
@@ -16701,6 +16860,9 @@
       <c r="C995" s="0" t="s">
         <v>591</v>
       </c>
+      <c r="D995" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="996" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A996" s="0" t="s">
@@ -16712,6 +16874,9 @@
       <c r="C996" s="0" t="s">
         <v>803</v>
       </c>
+      <c r="D996" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="997" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A997" s="0" t="s">
@@ -16737,6 +16902,9 @@
       <c r="C998" s="0" t="s">
         <v>804</v>
       </c>
+      <c r="D998" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="999" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A999" s="0" t="s">
@@ -16748,6 +16916,9 @@
       <c r="C999" s="0" t="s">
         <v>595</v>
       </c>
+      <c r="D999" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1000" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1000" s="0" t="s">
@@ -16759,6 +16930,9 @@
       <c r="C1000" s="0" t="s">
         <v>805</v>
       </c>
+      <c r="D1000" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1001" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1001" s="0" t="s">
@@ -16770,6 +16944,9 @@
       <c r="C1001" s="0" t="s">
         <v>806</v>
       </c>
+      <c r="D1001" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1002" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1002" s="0" t="s">
@@ -16795,6 +16972,9 @@
       <c r="C1003" s="0" t="s">
         <v>747</v>
       </c>
+      <c r="D1003" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1004" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1004" s="0" t="s">
@@ -16820,6 +17000,9 @@
       <c r="C1005" s="0" t="s">
         <v>807</v>
       </c>
+      <c r="D1005" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1006" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1006" s="0" t="s">
@@ -16831,6 +17014,9 @@
       <c r="C1006" s="0" t="s">
         <v>808</v>
       </c>
+      <c r="D1006" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1007" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1007" s="0" t="s">
@@ -16842,6 +17028,9 @@
       <c r="C1007" s="0" t="s">
         <v>539</v>
       </c>
+      <c r="D1007" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1008" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1008" s="0" t="s">
@@ -16867,6 +17056,9 @@
       <c r="C1009" s="0" t="s">
         <v>602</v>
       </c>
+      <c r="D1009" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1010" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1010" s="0" t="s">
@@ -16878,6 +17070,9 @@
       <c r="C1010" s="0" t="s">
         <v>604</v>
       </c>
+      <c r="D1010" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1011" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1011" s="0" t="s">
@@ -16903,6 +17098,9 @@
       <c r="C1012" s="0" t="s">
         <v>244</v>
       </c>
+      <c r="D1012" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1013" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1013" s="0" t="s">
@@ -16928,6 +17126,9 @@
       <c r="C1014" s="0" t="s">
         <v>405</v>
       </c>
+      <c r="D1014" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1015" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1015" s="0" t="s">
@@ -16953,6 +17154,9 @@
       <c r="C1016" s="0" t="s">
         <v>107</v>
       </c>
+      <c r="D1016" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1017" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1017" s="0" t="s">
@@ -16964,6 +17168,9 @@
       <c r="C1017" s="0" t="s">
         <v>809</v>
       </c>
+      <c r="D1017" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1018" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1018" s="0" t="s">
@@ -16975,6 +17182,9 @@
       <c r="C1018" s="0" t="s">
         <v>810</v>
       </c>
+      <c r="D1018" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1019" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1019" s="0" t="s">
@@ -17000,6 +17210,9 @@
       <c r="C1020" s="0" t="s">
         <v>811</v>
       </c>
+      <c r="D1020" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1021" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1021" s="0" t="s">
@@ -17025,6 +17238,9 @@
       <c r="C1022" s="0" t="s">
         <v>812</v>
       </c>
+      <c r="D1022" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1023" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1023" s="0" t="s">
@@ -17036,6 +17252,9 @@
       <c r="C1023" s="0" t="s">
         <v>813</v>
       </c>
+      <c r="D1023" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1024" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1024" s="0" t="s">
@@ -17047,6 +17266,9 @@
       <c r="C1024" s="0" t="s">
         <v>616</v>
       </c>
+      <c r="D1024" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1025" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1025" s="0" t="s">
@@ -17058,6 +17280,9 @@
       <c r="C1025" s="0" t="s">
         <v>814</v>
       </c>
+      <c r="D1025" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1026" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1026" s="0" t="s">
@@ -17069,6 +17294,9 @@
       <c r="C1026" s="0" t="s">
         <v>815</v>
       </c>
+      <c r="D1026" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1027" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1027" s="0" t="s">
@@ -17108,6 +17336,9 @@
       <c r="C1029" s="0" t="s">
         <v>45</v>
       </c>
+      <c r="D1029" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1030" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1030" s="0" t="s">
@@ -17119,6 +17350,9 @@
       <c r="C1030" s="0" t="s">
         <v>816</v>
       </c>
+      <c r="D1030" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1031" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1031" s="0" t="s">
@@ -17130,6 +17364,9 @@
       <c r="C1031" s="0" t="s">
         <v>817</v>
       </c>
+      <c r="D1031" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1032" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1032" s="0" t="s">
@@ -17141,6 +17378,9 @@
       <c r="C1032" s="0" t="s">
         <v>818</v>
       </c>
+      <c r="D1032" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1033" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1033" s="0" t="s">
@@ -17236,6 +17476,9 @@
       <c r="C1039" s="0" t="s">
         <v>823</v>
       </c>
+      <c r="D1039" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1040" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1040" s="0" t="s">
@@ -17247,6 +17490,9 @@
       <c r="C1040" s="0" t="s">
         <v>824</v>
       </c>
+      <c r="D1040" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1041" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1041" s="0" t="s">
@@ -17258,6 +17504,9 @@
       <c r="C1041" s="0" t="s">
         <v>825</v>
       </c>
+      <c r="D1041" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1042" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1042" s="0" t="s">
@@ -17269,6 +17518,9 @@
       <c r="C1042" s="0" t="s">
         <v>418</v>
       </c>
+      <c r="D1042" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1043" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1043" s="0" t="s">
@@ -17490,6 +17742,9 @@
       <c r="C1058" s="0" t="s">
         <v>834</v>
       </c>
+      <c r="D1058" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1059" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1059" s="0" t="s">
@@ -17543,6 +17798,9 @@
       <c r="C1062" s="0" t="s">
         <v>835</v>
       </c>
+      <c r="D1062" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1063" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1063" s="0" t="s">
@@ -17610,6 +17868,9 @@
       <c r="C1067" s="0" t="s">
         <v>836</v>
       </c>
+      <c r="D1067" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1068" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1068" s="0" t="s">
@@ -17635,6 +17896,9 @@
       <c r="C1069" s="0" t="s">
         <v>837</v>
       </c>
+      <c r="D1069" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1070" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1070" s="0" t="s">
@@ -17646,6 +17910,9 @@
       <c r="C1070" s="0" t="s">
         <v>838</v>
       </c>
+      <c r="D1070" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1071" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1071" s="0" t="s">
@@ -17839,6 +18106,9 @@
       <c r="C1084" s="0" t="s">
         <v>845</v>
       </c>
+      <c r="D1084" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1085" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1085" s="0" t="s">
@@ -17878,6 +18148,9 @@
       <c r="C1087" s="0" t="s">
         <v>846</v>
       </c>
+      <c r="D1087" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1088" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1088" s="0" t="s">
@@ -18015,6 +18288,9 @@
       <c r="C1097" s="0" t="s">
         <v>849</v>
       </c>
+      <c r="D1097" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1098" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1098" s="0" t="s">
@@ -18026,6 +18302,9 @@
       <c r="C1098" s="0" t="s">
         <v>850</v>
       </c>
+      <c r="D1098" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1099" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1099" s="0" t="s">
@@ -18051,6 +18330,9 @@
       <c r="C1100" s="0" t="s">
         <v>852</v>
       </c>
+      <c r="D1100" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1101" s="0" t="s">
@@ -18118,6 +18400,9 @@
       <c r="C1105" s="0" t="s">
         <v>468</v>
       </c>
+      <c r="D1105" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1106" s="0" t="s">
@@ -18157,6 +18442,9 @@
       <c r="C1108" s="0" t="s">
         <v>823</v>
       </c>
+      <c r="D1108" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1109" s="0" t="s">
@@ -18546,6 +18834,9 @@
       <c r="C1136" s="0" t="s">
         <v>777</v>
       </c>
+      <c r="D1136" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1137" s="0" t="s">
@@ -18781,6 +19072,9 @@
       <c r="C1153" s="0" t="s">
         <v>875</v>
       </c>
+      <c r="D1153" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1154" s="0" t="s">
@@ -18806,6 +19100,9 @@
       <c r="C1155" s="0" t="s">
         <v>876</v>
       </c>
+      <c r="D1155" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1156" s="0" t="s">
@@ -18817,6 +19114,9 @@
       <c r="C1156" s="0" t="s">
         <v>849</v>
       </c>
+      <c r="D1156" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1157" s="0" t="s">
@@ -18884,6 +19184,9 @@
       <c r="C1161" s="0" t="s">
         <v>877</v>
       </c>
+      <c r="D1161" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1162" s="0" t="s">
@@ -18951,6 +19254,9 @@
       <c r="C1166" s="0" t="s">
         <v>646</v>
       </c>
+      <c r="D1166" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1167" s="0" t="s">
@@ -19746,6 +20052,9 @@
       <c r="C1223" s="0" t="s">
         <v>907</v>
       </c>
+      <c r="D1223" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1224" s="0" t="s">
@@ -19771,6 +20080,9 @@
       <c r="C1225" s="0" t="s">
         <v>776</v>
       </c>
+      <c r="D1225" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1226" s="0" t="s">
@@ -19782,6 +20094,9 @@
       <c r="C1226" s="0" t="s">
         <v>777</v>
       </c>
+      <c r="D1226" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1227" s="0" t="s">
@@ -20003,6 +20318,9 @@
       <c r="C1242" s="0" t="s">
         <v>919</v>
       </c>
+      <c r="D1242" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1243" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1243" s="0" t="s">
@@ -20112,6 +20430,9 @@
       <c r="C1250" s="0" t="s">
         <v>920</v>
       </c>
+      <c r="D1250" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1251" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1251" s="0" t="s">
@@ -20290,6 +20611,9 @@
       </c>
       <c r="C1263" s="0" t="s">
         <v>811</v>
+      </c>
+      <c r="D1263" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1264" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/sentence_level/data/earthquake/sentences/nepal_earthquake.xlsx
+++ b/sentence_level/data/earthquake/sentences/nepal_earthquake.xlsx
@@ -2925,8 +2925,8 @@
   </sheetPr>
   <dimension ref="A1:D1290"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1290" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1263" activeCellId="0" sqref="C1263"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A885" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D903" activeCellId="0" sqref="D903"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -15575,6 +15575,9 @@
       <c r="C903" s="0" t="s">
         <v>753</v>
       </c>
+      <c r="D903" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="904" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A904" s="0" t="s">
